--- a/메뉴분류엑셀.xlsx
+++ b/메뉴분류엑셀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\python\menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A1F9075-15E0-413D-A4E8-0695922261C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAAFE4-DB74-427C-8DF2-3E79CF6B08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3617" yWindow="3694" windowWidth="25534" windowHeight="9849" xr2:uid="{38E125C0-9A11-4561-9F9E-2BAA2724E441}"/>
+    <workbookView xWindow="3617" yWindow="3694" windowWidth="25534" windowHeight="13372" xr2:uid="{38E125C0-9A11-4561-9F9E-2BAA2724E441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>루트</t>
   </si>
@@ -53,15 +53,9 @@
     <t>차트</t>
   </si>
   <si>
-    <t>PANEL_BOARD_CHART</t>
-  </si>
-  <si>
     <t>설비</t>
   </si>
   <si>
-    <t>SETTINGS_MACHINE</t>
-  </si>
-  <si>
     <t>ESG</t>
   </si>
   <si>
@@ -80,12 +74,6 @@
     <t>PLC</t>
   </si>
   <si>
-    <t>PANEL_BOARD_STATUS</t>
-  </si>
-  <si>
-    <t>PLC_ALARM</t>
-  </si>
-  <si>
     <t>PLC_ALARM_CODE</t>
   </si>
   <si>
@@ -95,87 +83,45 @@
     <t>분전반</t>
   </si>
   <si>
-    <t>SETTINGS_PANEL_BOARD</t>
-  </si>
-  <si>
     <t>설정</t>
   </si>
   <si>
-    <t>SETTINGS</t>
-  </si>
-  <si>
     <t>터미널</t>
   </si>
   <si>
-    <t>SETTINGS_TERMINAL</t>
-  </si>
-  <si>
     <t>센서</t>
   </si>
   <si>
-    <t>SETTINGS_SENSOR</t>
-  </si>
-  <si>
     <t>데이터 타입</t>
   </si>
   <si>
-    <t>SETTINGS_DATATYPE</t>
-  </si>
-  <si>
     <t>공장</t>
   </si>
   <si>
-    <t>SETTINGS_FACTORY</t>
-  </si>
-  <si>
     <t>회사</t>
   </si>
   <si>
-    <t>SETTINGS_COMPANY</t>
-  </si>
-  <si>
     <t>분전반 관리</t>
   </si>
   <si>
-    <t>SETTINGS_PANEL_BOARD_MANAGE</t>
-  </si>
-  <si>
     <t>분전반-설비 관리</t>
   </si>
   <si>
-    <t>SETTINGS_PANEL_BOARD_FACILITY</t>
-  </si>
-  <si>
     <t>목표 Peak 관리</t>
   </si>
   <si>
-    <t>SETTINGS_PANEL_BOARD_PEAK</t>
-  </si>
-  <si>
     <t>사용자</t>
   </si>
   <si>
-    <t>SETTINGS_USER</t>
-  </si>
-  <si>
     <t>알림</t>
   </si>
   <si>
-    <t>SETTINGS_NOTIFICATION</t>
-  </si>
-  <si>
     <t>모바일 기기</t>
   </si>
   <si>
-    <t>SETTINGS_MOBILE</t>
-  </si>
-  <si>
     <t>앱 설정</t>
   </si>
   <si>
-    <t>SETTINGS_APP</t>
-  </si>
-  <si>
     <t>사용자 정보</t>
   </si>
   <si>
@@ -212,15 +158,6 @@
     <t>/chart</t>
   </si>
   <si>
-    <t>/chart?tab=machine</t>
-  </si>
-  <si>
-    <t>/chart?tab=esg</t>
-  </si>
-  <si>
-    <t>/chart?tab=production</t>
-  </si>
-  <si>
     <t>/mv</t>
   </si>
   <si>
@@ -230,9 +167,6 @@
     <t>현황(PLC)</t>
   </si>
   <si>
-    <t>PLC_STATUS</t>
-  </si>
-  <si>
     <t>차트(PLC)</t>
   </si>
   <si>
@@ -245,9 +179,6 @@
     <t>기록(PLC)</t>
   </si>
   <si>
-    <t>PLC_RECORD</t>
-  </si>
-  <si>
     <t>/plc/log</t>
   </si>
   <si>
@@ -272,9 +203,6 @@
     <t>분석(MACHINE)</t>
   </si>
   <si>
-    <t>PANEL_BOARD</t>
-  </si>
-  <si>
     <t>/panel-board</t>
   </si>
   <si>
@@ -287,9 +215,6 @@
     <t>기록(분전반)</t>
   </si>
   <si>
-    <t>PANEL_BOARD_LOG</t>
-  </si>
-  <si>
     <t>/panel-board/log</t>
   </si>
   <si>
@@ -302,18 +227,12 @@
     <t>한전(분전반)</t>
   </si>
   <si>
-    <t>PANEL_BOARD_KEPCO</t>
-  </si>
-  <si>
     <t>/panel-board/kepco</t>
   </si>
   <si>
     <t>기록(한전)</t>
   </si>
   <si>
-    <t>PANEL_BOARD_KEPCO_LOG</t>
-  </si>
-  <si>
     <t>/panel-board/kepco/log</t>
   </si>
   <si>
@@ -392,8 +311,133 @@
     <t>/setting/panel-board</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
     <t>mv&amp;machiney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHART</t>
+  </si>
+  <si>
+    <t>/chart/machine</t>
+  </si>
+  <si>
+    <t>/chart/esg</t>
+  </si>
+  <si>
+    <t>/chart/production</t>
+  </si>
+  <si>
+    <t>PLC_DASHBOARD</t>
+  </si>
+  <si>
+    <t>PLC_LOG</t>
+  </si>
+  <si>
+    <t>PLC_ALARM_HISTORY</t>
+  </si>
+  <si>
+    <t>PANELBOARD</t>
+  </si>
+  <si>
+    <t>PANELBOARD_STATUS</t>
+  </si>
+  <si>
+    <t>PANELBOARD_LOG</t>
+  </si>
+  <si>
+    <t>PANELBOARD_CHART</t>
+  </si>
+  <si>
+    <t>PANELBOARD_KEPCO</t>
+  </si>
+  <si>
+    <t>PANELBOARD_KEPCO_DASHBOARD</t>
+  </si>
+  <si>
+    <t>PANELBOARD_KEPCO_LOG</t>
+  </si>
+  <si>
+    <t>기록</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>/log</t>
+  </si>
+  <si>
+    <t>SETTING</t>
+  </si>
+  <si>
+    <t>SETTING_MACHINE</t>
+  </si>
+  <si>
+    <t>SETTING_TERMINAL</t>
+  </si>
+  <si>
+    <t>SETTING_SENSOR</t>
+  </si>
+  <si>
+    <t>SETTING_DATATYPE</t>
+  </si>
+  <si>
+    <t>SETTING_FACTORY</t>
+  </si>
+  <si>
+    <t>SETTING_COMPANY</t>
+  </si>
+  <si>
+    <t>SETTING_PANELBOARD</t>
+  </si>
+  <si>
+    <t>SETTING_PANELBOARD_MANAGEMENT</t>
+  </si>
+  <si>
+    <t>SETTING_PANELBOARD_EQUIPMENT</t>
+  </si>
+  <si>
+    <t>SETTINGS_PANELBOARD_TARGETPEAK</t>
+  </si>
+  <si>
+    <t>SETTING_USER</t>
+  </si>
+  <si>
+    <t>SETTING_NOTIFICATION</t>
+  </si>
+  <si>
+    <t>SETTING_MOBILEDEVICE</t>
+  </si>
+  <si>
+    <t>SETTING_APPCONFIG</t>
+  </si>
+  <si>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>SETTING_MENU</t>
+  </si>
+  <si>
+    <t>/setting/menu</t>
+  </si>
+  <si>
+    <t>메뉴관리</t>
+  </si>
+  <si>
+    <t>SETTING_MENU_CRUD</t>
+  </si>
+  <si>
+    <t>/setting/menu/crud</t>
+  </si>
+  <si>
+    <t>메뉴매핑</t>
+  </si>
+  <si>
+    <t>SETTING_MENU_MAPPING</t>
+  </si>
+  <si>
+    <t>/setting/menu/mapping</t>
   </si>
 </sst>
 </file>
@@ -792,35 +836,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C76D61-550D-4210-A7EF-ECB995679519}">
-  <dimension ref="A2:J41"/>
+  <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J2" t="str">
         <f>A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2</f>
@@ -832,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -846,10 +890,12 @@
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J41" si="0">A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3</f>
-        <v>1,common,0,null,루트,ROOT,</v>
+        <f t="shared" ref="J3:J46" si="0">A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3</f>
+        <v>1,common,0,null,루트,ROOT,/</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -857,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -872,19 +918,19 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>2,mv&amp;machiney,1,0,홈,HOME,/dashboard</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -896,14 +942,14 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>3,mv&amp;machiney,2,0,차트,PANEL_BOARD_CHART,/chart</v>
+        <v>3,mv&amp;machiney,2,0,차트,CHART,/chart</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -911,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -920,17 +966,17 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>4,mv&amp;machiney,3,2,설비,CHART_MACHINE,/chart?tab=machine</v>
+        <v>4,mv&amp;machiney,3,2,설비,CHART_MACHINE,/chart/machine</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -938,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -947,17 +993,17 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>5,mv&amp;machiney,4,2,ESG,CHART_ESG,/chart?tab=esg</v>
+        <v>5,mv&amp;machiney,4,2,ESG,CHART_ESG,/chart/esg</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -965,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -974,17 +1020,17 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>6,mv&amp;machiney,5,2,생산,CHART_PRODUCTION,/chart?tab=production</v>
+        <v>6,mv&amp;machiney,5,2,생산,CHART_PRODUCTION,/chart/production</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -992,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
@@ -1001,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
@@ -1019,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1028,25 +1074,25 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>8,plc,7,0,PLC,PLC,/plc</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -1055,17 +1101,17 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>9,plc,8,7,현황(PLC),PLC_STATUS,/plc</v>
+        <v>9,plc,8,7,현황(PLC),PLC_DASHBOARD,/plc</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1073,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1">
         <v>9</v>
@@ -1082,13 +1128,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -1100,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1">
         <v>10</v>
@@ -1109,25 +1155,25 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>11,plc,10,7,기록(PLC),PLC_RECORD,/plc/log</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>11,plc,10,7,기록(PLC),PLC_LOG,/plc/log</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1">
         <v>11</v>
@@ -1136,17 +1182,17 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>12,plc,11,7,알람(PLC),PLC_ALARM,/plc/history</v>
+        <v>12,plc,11,7,알람(PLC),PLC_ALARM_HISTORY,/plc/history</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1154,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1">
         <v>12</v>
@@ -1163,13 +1209,13 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1181,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1">
         <v>13</v>
@@ -1190,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -1208,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1">
         <v>14</v>
@@ -1217,13 +1263,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -1235,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1">
         <v>15</v>
@@ -1244,17 +1290,17 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
-        <v>16,panel_board,15,0,분전반,PANEL_BOARD,/panel-board</v>
+        <v>16,panel_board,15,0,분전반,PANELBOARD,/panel-board</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1262,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C19" s="1">
         <v>16</v>
@@ -1271,17 +1317,17 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>17,panel_board,16,15,현황(분전반),PANEL_BOARD_STATUS,/panel-board/daily</v>
+        <v>17,panel_board,16,15,현황(분전반),PANELBOARD_STATUS,/panel-board/daily</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1289,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C20" s="1">
         <v>17</v>
@@ -1298,17 +1344,17 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>18,panel_board,17,15,기록(분전반),PANEL_BOARD_LOG,/panel-board/log</v>
+        <v>18,panel_board,17,15,기록(분전반),PANELBOARD_LOG,/panel-board/log</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1316,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1">
         <v>18</v>
@@ -1325,17 +1371,17 @@
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>19,panel_board,18,15,차트(분전반),PANEL_BOARD_CHART,/panel-board/chart</v>
+        <v>19,panel_board,18,15,차트(분전반),PANELBOARD_CHART,/panel-board/chart</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1343,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1">
         <v>19</v>
@@ -1352,25 +1398,25 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>20,panel_board,19,15,한전(분전반),PANEL_BOARD_KEPCO,/panel-board/kepco</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>20,panel_board,19,15,한전(분전반),PANELBOARD_KEPCO,/panel-board/kepco</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1">
         <v>20</v>
@@ -1379,98 +1425,98 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>21,panel_board,20,19,기록(한전),PANEL_BOARD_KEPCO_LOG,/panel-board/kepco/log</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>21,panel_board,20,19,한전(분전반),PANELBOARD_KEPCO_DASHBOARD,/panel-board/kepco</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1">
         <v>21</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>22,common,21,0,설정,SETTINGS,/setting</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>22,panel_board,21,19,기록(한전),PANELBOARD_KEPCO_LOG,/panel-board/kepco/log</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1">
         <v>22</v>
       </c>
       <c r="D25" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>23,common,22,21,설비,SETTINGS_MACHINE,/setting/machine</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>23,mv&amp;machiney,22,0,기록,LOG,/log</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1">
         <v>23</v>
       </c>
       <c r="D26" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>24,common,23,21,터미널,SETTINGS_TERMINAL,/setting/terminal</v>
+        <v>24,common,23,0,설정,SETTING,/setting</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1478,26 +1524,26 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1">
         <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>25,common,24,21,센서,SETTINGS_SENSOR,/setting/sensor</v>
+        <v>25,common,24,23,설비,SETTING_MACHINE,/setting/machine</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1505,26 +1551,26 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1">
         <v>25</v>
       </c>
       <c r="D28" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>26,common,25,21,데이터 타입,SETTINGS_DATATYPE,/setting/data-type</v>
+        <v>26,common,25,23,터미널,SETTING_TERMINAL,/setting/terminal</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1532,26 +1578,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1">
         <v>26</v>
       </c>
       <c r="D29" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>27,common,26,21,공장,SETTINGS_FACTORY,/setting/factory</v>
+        <v>27,common,26,23,센서,SETTING_SENSOR,/setting/sensor</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1559,26 +1605,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1">
         <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>28,common,27,21,회사,SETTINGS_COMPANY,/setting/company</v>
+        <v>28,common,27,23,데이터 타입,SETTING_DATATYPE,/setting/data-type</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1586,80 +1632,80 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1">
         <v>28</v>
       </c>
       <c r="D31" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
-        <v>29,common,28,21,분전반,SETTINGS_PANEL_BOARD,/setting/panel-board</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+        <v>29,common,28,23,공장,SETTING_FACTORY,/setting/factory</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1">
         <v>29</v>
       </c>
       <c r="D32" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
-        <v>30,common,29,28,분전반 관리,SETTINGS_PANEL_BOARD_MANAGE,/setting/panel-board/management</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+        <v>30,common,29,23,회사,SETTING_COMPANY,/setting/company</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1">
         <v>30</v>
       </c>
       <c r="D33" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
-        <v>31,common,30,28,분전반-설비 관리,SETTINGS_PANEL_BOARD_FACILITY,/setting/panel-board/equipment</v>
+        <v>31,common,30,23,분전반,SETTING_PANELBOARD,/setting/panel-board</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
@@ -1667,107 +1713,107 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1">
         <v>31</v>
       </c>
       <c r="D34" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>32,common,31,28,목표 Peak 관리,SETTINGS_PANEL_BOARD_PEAK,/setting/panel-board/target-peak</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>32,common,31,30,분전반 관리,SETTING_PANELBOARD_MANAGEMENT,/setting/panel-board/management</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1">
         <v>32</v>
       </c>
       <c r="D35" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>33,common,32,21,사용자,SETTINGS_USER,/setting/user</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>33,common,32,30,분전반-설비 관리,SETTING_PANELBOARD_EQUIPMENT,/setting/panel-board/equipment</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1">
         <v>33</v>
       </c>
       <c r="D36" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>34,common,33,21,알림,SETTINGS_NOTIFICATION,/setting/notification</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>34,common,33,30,목표 Peak 관리,SETTINGS_PANELBOARD_TARGETPEAK,/setting/panel-board/target-peak</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1">
         <v>34</v>
       </c>
       <c r="D37" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>35,common,34,21,모바일 기기,SETTINGS_MOBILE,/setting/mobile-device</v>
+        <v>35,common,34,23,사용자,SETTING_USER,/setting/user</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1775,107 +1821,243 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1">
         <v>35</v>
       </c>
       <c r="D38" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>36,common,35,21,앱 설정,SETTINGS_APP,/setting/app-config</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>36,common,35,23,알림,SETTING_NOTIFICATION,/setting/notification</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1">
         <v>36</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>37,common,36,0,사용자 정보,USER_INFO,/user/info</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>37,common,36,23,모바일 기기,SETTING_MOBILEDEVICE,/setting/mobile-device</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1">
         <v>37</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>38,common,37,0,주간 리포트,WEEKLY_REPORT,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>38,common,37,23,앱 설정,SETTING_APPCONFIG,/setting/app-config</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1">
         <v>38</v>
       </c>
       <c r="D41" s="1">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>39,common,38,23,메뉴,SETTING_MENU,/setting/menu</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="1">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>40,common,39,38,메뉴관리,SETTING_MENU_CRUD,/setting/menu/crud</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1">
+        <v>40</v>
+      </c>
+      <c r="D43" s="1">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>41,common,40,38,메뉴매핑,SETTING_MENU_MAPPING,/setting/menu/mapping</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1">
         <v>0</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>39,common,38,0,월간 리포트,MONTHLY_REPORT,</v>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>42,common,41,0,사용자 정보,USER_INFO,/user/info</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>43,common,42,0,주간 리포트,WEEKLY_REPORT,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>44,common,43,0,월간 리포트,MONTHLY_REPORT,</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/메뉴분류엑셀.xlsx
+++ b/메뉴분류엑셀.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\python\menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAAFE4-DB74-427C-8DF2-3E79CF6B08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35729CC7-50AB-42BC-AFFC-FB142FB7E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3617" yWindow="3694" windowWidth="25534" windowHeight="13372" xr2:uid="{38E125C0-9A11-4561-9F9E-2BAA2724E441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -836,1228 +837,1334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C76D61-550D-4210-A7EF-ECB995679519}">
-  <dimension ref="A2:J46"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="str">
-        <f>A2&amp;","&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;","&amp;G2</f>
-        <v>No,분류,idx,parent_idx,항목,코드,Route</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J46" si="0">A3&amp;","&amp;B3&amp;","&amp;C3&amp;","&amp;D3&amp;","&amp;E3&amp;","&amp;F3&amp;","&amp;G3</f>
-        <v>1,common,0,null,루트,ROOT,/</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="0"/>
-        <v>2,mv&amp;machiney,1,0,홈,HOME,/dashboard</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" si="0"/>
-        <v>3,mv&amp;machiney,2,0,차트,CHART,/chart</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="0"/>
-        <v>4,mv&amp;machiney,3,2,설비,CHART_MACHINE,/chart/machine</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1">
         <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>5,mv&amp;machiney,4,2,ESG,CHART_ESG,/chart/esg</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>6,mv&amp;machiney,5,2,생산,CHART_PRODUCTION,/chart/production</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>7,mv,6,0,MV,MV,/mv</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>8,plc,7,0,PLC,PLC,/plc</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>9,plc,8,7,현황(PLC),PLC_DASHBOARD,/plc</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>10,plc,9,7,차트(PLC),PLC_CHART,/plc/chart</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>11,plc,10,7,기록(PLC),PLC_LOG,/plc/log</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>12,plc,11,7,알람(PLC),PLC_ALARM_HISTORY,/plc/history</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="1">
-        <v>12</v>
-      </c>
       <c r="D15" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>13,plc,12,7,알람 코드(PLC),PLC_ALARM_CODE,/plc/{place_holder}/manual</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>14,mv&amp;machiney,13,0,설비,MACHINE,/machine</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>15,mv&amp;machiney,14,13,분석(MACHINE),MACHINE_ANALYSIS,/machine</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>16,panel_board,15,0,분전반,PANELBOARD,/panel-board</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>17,panel_board,16,15,현황(분전반),PANELBOARD_STATUS,/panel-board/daily</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>18,panel_board,17,15,기록(분전반),PANELBOARD_LOG,/panel-board/log</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>19,panel_board,18,15,차트(분전반),PANELBOARD_CHART,/panel-board/chart</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
         <v>19</v>
-      </c>
-      <c r="D22" s="1">
-        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>20,panel_board,19,15,한전(분전반),PANELBOARD_KEPCO,/panel-board/kepco</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>21,panel_board,20,19,한전(분전반),PANELBOARD_KEPCO_DASHBOARD,/panel-board/kepco</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="1">
-        <v>21</v>
-      </c>
       <c r="D24" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>22,panel_board,21,19,기록(한전),PANELBOARD_KEPCO_LOG,/panel-board/kepco/log</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1">
         <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1">
-        <v>22</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>23,mv&amp;machiney,22,0,기록,LOG,/log</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
         <v>23</v>
       </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>24,common,23,0,설정,SETTING,/setting</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C27" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>25,common,24,23,설비,SETTING_MACHINE,/setting/machine</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>26,common,25,23,터미널,SETTING_TERMINAL,/setting/terminal</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1">
         <v>23</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>27,common,26,23,센서,SETTING_SENSOR,/setting/sensor</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>28,common,27,23,데이터 타입,SETTING_DATATYPE,/setting/data-type</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>23</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>29,common,28,23,공장,SETTING_FACTORY,/setting/factory</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1">
         <v>23</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="0"/>
-        <v>30,common,29,23,회사,SETTING_COMPANY,/setting/company</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
         <v>30</v>
       </c>
-      <c r="D33" s="1">
-        <v>23</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="0"/>
-        <v>31,common,30,23,분전반,SETTING_PANELBOARD,/setting/panel-board</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>30</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="0"/>
-        <v>32,common,31,30,분전반 관리,SETTING_PANELBOARD_MANAGEMENT,/setting/panel-board/management</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1">
         <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="0"/>
-        <v>33,common,32,30,분전반-설비 관리,SETTING_PANELBOARD_EQUIPMENT,/setting/panel-board/equipment</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="0"/>
-        <v>34,common,33,30,목표 Peak 관리,SETTINGS_PANELBOARD_TARGETPEAK,/setting/panel-board/target-peak</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1">
         <v>23</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="0"/>
-        <v>35,common,34,23,사용자,SETTING_USER,/setting/user</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1">
         <v>23</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" si="0"/>
-        <v>36,common,35,23,알림,SETTING_NOTIFICATION,/setting/notification</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1">
         <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J39" t="str">
-        <f t="shared" si="0"/>
-        <v>37,common,36,23,모바일 기기,SETTING_MOBILEDEVICE,/setting/mobile-device</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1">
         <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="0"/>
-        <v>38,common,37,23,앱 설정,SETTING_APPCONFIG,/setting/app-config</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C41" s="1">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1">
         <v>38</v>
       </c>
-      <c r="D41" s="1">
-        <v>23</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="0"/>
-        <v>39,common,38,23,메뉴,SETTING_MENU,/setting/menu</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C42" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1">
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="0"/>
-        <v>40,common,39,38,메뉴관리,SETTING_MENU_CRUD,/setting/menu/crud</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="0"/>
-        <v>41,common,40,38,메뉴매핑,SETTING_MENU_MAPPING,/setting/menu/mapping</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C44" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="0"/>
-        <v>42,common,41,0,사용자 정보,USER_INFO,/user/info</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C45" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45" s="1"/>
-      <c r="J45" t="str">
-        <f t="shared" si="0"/>
-        <v>43,common,42,0,주간 리포트,WEEKLY_REPORT,</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="1">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="J46" t="str">
-        <f t="shared" si="0"/>
-        <v>44,common,43,0,월간 리포트,MONTHLY_REPORT,</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AB4EA-860F-44A6-884F-E1E3BCF82341}">
+  <dimension ref="B2:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="str">
+        <f>Sheet1!A1&amp;","&amp;Sheet1!B1&amp;","&amp;Sheet1!C1&amp;","&amp;Sheet1!D1&amp;","&amp;Sheet1!E1&amp;","&amp;Sheet1!F1&amp;","&amp;Sheet1!G1</f>
+        <v>No,분류,idx,parent_idx,항목,코드,Route</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="str">
+        <f>Sheet1!A2&amp;","&amp;Sheet1!B2&amp;","&amp;Sheet1!C2&amp;","&amp;Sheet1!D2&amp;","&amp;Sheet1!E2&amp;","&amp;Sheet1!F2&amp;","&amp;Sheet1!G2</f>
+        <v>1,common,0,null,루트,ROOT,/</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="str">
+        <f>Sheet1!A3&amp;","&amp;Sheet1!B3&amp;","&amp;Sheet1!C3&amp;","&amp;Sheet1!D3&amp;","&amp;Sheet1!E3&amp;","&amp;Sheet1!F3&amp;","&amp;Sheet1!G3</f>
+        <v>2,mv&amp;machiney,1,0,홈,HOME,/dashboard</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="str">
+        <f>Sheet1!A4&amp;","&amp;Sheet1!B4&amp;","&amp;Sheet1!C4&amp;","&amp;Sheet1!D4&amp;","&amp;Sheet1!E4&amp;","&amp;Sheet1!F4&amp;","&amp;Sheet1!G4</f>
+        <v>3,mv&amp;machiney,2,0,차트,CHART,/chart</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="str">
+        <f>Sheet1!A5&amp;","&amp;Sheet1!B5&amp;","&amp;Sheet1!C5&amp;","&amp;Sheet1!D5&amp;","&amp;Sheet1!E5&amp;","&amp;Sheet1!F5&amp;","&amp;Sheet1!G5</f>
+        <v>4,mv&amp;machiney,3,2,설비,CHART_MACHINE,/chart/machine</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="str">
+        <f>Sheet1!A6&amp;","&amp;Sheet1!B6&amp;","&amp;Sheet1!C6&amp;","&amp;Sheet1!D6&amp;","&amp;Sheet1!E6&amp;","&amp;Sheet1!F6&amp;","&amp;Sheet1!G6</f>
+        <v>5,mv&amp;machiney,4,2,ESG,CHART_ESG,/chart/esg</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="str">
+        <f>Sheet1!A7&amp;","&amp;Sheet1!B7&amp;","&amp;Sheet1!C7&amp;","&amp;Sheet1!D7&amp;","&amp;Sheet1!E7&amp;","&amp;Sheet1!F7&amp;","&amp;Sheet1!G7</f>
+        <v>6,mv&amp;machiney,5,2,생산,CHART_PRODUCTION,/chart/production</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="str">
+        <f>Sheet1!A8&amp;","&amp;Sheet1!B8&amp;","&amp;Sheet1!C8&amp;","&amp;Sheet1!D8&amp;","&amp;Sheet1!E8&amp;","&amp;Sheet1!F8&amp;","&amp;Sheet1!G8</f>
+        <v>7,mv,6,0,MV,MV,/mv</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="str">
+        <f>Sheet1!A9&amp;","&amp;Sheet1!B9&amp;","&amp;Sheet1!C9&amp;","&amp;Sheet1!D9&amp;","&amp;Sheet1!E9&amp;","&amp;Sheet1!F9&amp;","&amp;Sheet1!G9</f>
+        <v>8,plc,7,0,PLC,PLC,/plc</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="str">
+        <f>Sheet1!A10&amp;","&amp;Sheet1!B10&amp;","&amp;Sheet1!C10&amp;","&amp;Sheet1!D10&amp;","&amp;Sheet1!E10&amp;","&amp;Sheet1!F10&amp;","&amp;Sheet1!G10</f>
+        <v>9,plc,8,7,현황(PLC),PLC_DASHBOARD,/plc</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="str">
+        <f>Sheet1!A11&amp;","&amp;Sheet1!B11&amp;","&amp;Sheet1!C11&amp;","&amp;Sheet1!D11&amp;","&amp;Sheet1!E11&amp;","&amp;Sheet1!F11&amp;","&amp;Sheet1!G11</f>
+        <v>10,plc,9,7,차트(PLC),PLC_CHART,/plc/chart</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="str">
+        <f>Sheet1!A12&amp;","&amp;Sheet1!B12&amp;","&amp;Sheet1!C12&amp;","&amp;Sheet1!D12&amp;","&amp;Sheet1!E12&amp;","&amp;Sheet1!F12&amp;","&amp;Sheet1!G12</f>
+        <v>11,plc,10,7,기록(PLC),PLC_LOG,/plc/log</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="str">
+        <f>Sheet1!A13&amp;","&amp;Sheet1!B13&amp;","&amp;Sheet1!C13&amp;","&amp;Sheet1!D13&amp;","&amp;Sheet1!E13&amp;","&amp;Sheet1!F13&amp;","&amp;Sheet1!G13</f>
+        <v>12,plc,11,7,알람(PLC),PLC_ALARM_HISTORY,/plc/history</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="str">
+        <f>Sheet1!A14&amp;","&amp;Sheet1!B14&amp;","&amp;Sheet1!C14&amp;","&amp;Sheet1!D14&amp;","&amp;Sheet1!E14&amp;","&amp;Sheet1!F14&amp;","&amp;Sheet1!G14</f>
+        <v>13,plc,12,7,알람 코드(PLC),PLC_ALARM_CODE,/plc/{place_holder}/manual</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="str">
+        <f>Sheet1!A15&amp;","&amp;Sheet1!B15&amp;","&amp;Sheet1!C15&amp;","&amp;Sheet1!D15&amp;","&amp;Sheet1!E15&amp;","&amp;Sheet1!F15&amp;","&amp;Sheet1!G15</f>
+        <v>14,mv&amp;machiney,13,0,설비,MACHINE,/machine</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="str">
+        <f>Sheet1!A16&amp;","&amp;Sheet1!B16&amp;","&amp;Sheet1!C16&amp;","&amp;Sheet1!D16&amp;","&amp;Sheet1!E16&amp;","&amp;Sheet1!F16&amp;","&amp;Sheet1!G16</f>
+        <v>15,mv&amp;machiney,14,13,분석(MACHINE),MACHINE_ANALYSIS,/machine</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="str">
+        <f>Sheet1!A17&amp;","&amp;Sheet1!B17&amp;","&amp;Sheet1!C17&amp;","&amp;Sheet1!D17&amp;","&amp;Sheet1!E17&amp;","&amp;Sheet1!F17&amp;","&amp;Sheet1!G17</f>
+        <v>16,panel_board,15,0,분전반,PANELBOARD,/panel-board</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="str">
+        <f>Sheet1!A18&amp;","&amp;Sheet1!B18&amp;","&amp;Sheet1!C18&amp;","&amp;Sheet1!D18&amp;","&amp;Sheet1!E18&amp;","&amp;Sheet1!F18&amp;","&amp;Sheet1!G18</f>
+        <v>17,panel_board,16,15,현황(분전반),PANELBOARD_STATUS,/panel-board/daily</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="str">
+        <f>Sheet1!A19&amp;","&amp;Sheet1!B19&amp;","&amp;Sheet1!C19&amp;","&amp;Sheet1!D19&amp;","&amp;Sheet1!E19&amp;","&amp;Sheet1!F19&amp;","&amp;Sheet1!G19</f>
+        <v>18,panel_board,17,15,기록(분전반),PANELBOARD_LOG,/panel-board/log</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="str">
+        <f>Sheet1!A20&amp;","&amp;Sheet1!B20&amp;","&amp;Sheet1!C20&amp;","&amp;Sheet1!D20&amp;","&amp;Sheet1!E20&amp;","&amp;Sheet1!F20&amp;","&amp;Sheet1!G20</f>
+        <v>19,panel_board,18,15,차트(분전반),PANELBOARD_CHART,/panel-board/chart</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="str">
+        <f>Sheet1!A21&amp;","&amp;Sheet1!B21&amp;","&amp;Sheet1!C21&amp;","&amp;Sheet1!D21&amp;","&amp;Sheet1!E21&amp;","&amp;Sheet1!F21&amp;","&amp;Sheet1!G21</f>
+        <v>20,panel_board,19,15,한전(분전반),PANELBOARD_KEPCO,/panel-board/kepco</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="str">
+        <f>Sheet1!A22&amp;","&amp;Sheet1!B22&amp;","&amp;Sheet1!C22&amp;","&amp;Sheet1!D22&amp;","&amp;Sheet1!E22&amp;","&amp;Sheet1!F22&amp;","&amp;Sheet1!G22</f>
+        <v>21,panel_board,20,19,한전(분전반),PANELBOARD_KEPCO_DASHBOARD,/panel-board/kepco</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="str">
+        <f>Sheet1!A23&amp;","&amp;Sheet1!B23&amp;","&amp;Sheet1!C23&amp;","&amp;Sheet1!D23&amp;","&amp;Sheet1!E23&amp;","&amp;Sheet1!F23&amp;","&amp;Sheet1!G23</f>
+        <v>22,panel_board,21,19,기록(한전),PANELBOARD_KEPCO_LOG,/panel-board/kepco/log</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="str">
+        <f>Sheet1!A24&amp;","&amp;Sheet1!B24&amp;","&amp;Sheet1!C24&amp;","&amp;Sheet1!D24&amp;","&amp;Sheet1!E24&amp;","&amp;Sheet1!F24&amp;","&amp;Sheet1!G24</f>
+        <v>23,mv&amp;machiney,22,0,기록,LOG,/log</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="str">
+        <f>Sheet1!A25&amp;","&amp;Sheet1!B25&amp;","&amp;Sheet1!C25&amp;","&amp;Sheet1!D25&amp;","&amp;Sheet1!E25&amp;","&amp;Sheet1!F25&amp;","&amp;Sheet1!G25</f>
+        <v>24,common,23,0,설정,SETTING,/setting</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="str">
+        <f>Sheet1!A26&amp;","&amp;Sheet1!B26&amp;","&amp;Sheet1!C26&amp;","&amp;Sheet1!D26&amp;","&amp;Sheet1!E26&amp;","&amp;Sheet1!F26&amp;","&amp;Sheet1!G26</f>
+        <v>25,common,24,23,설비,SETTING_MACHINE,/setting/machine</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="str">
+        <f>Sheet1!A27&amp;","&amp;Sheet1!B27&amp;","&amp;Sheet1!C27&amp;","&amp;Sheet1!D27&amp;","&amp;Sheet1!E27&amp;","&amp;Sheet1!F27&amp;","&amp;Sheet1!G27</f>
+        <v>26,common,25,23,터미널,SETTING_TERMINAL,/setting/terminal</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="str">
+        <f>Sheet1!A28&amp;","&amp;Sheet1!B28&amp;","&amp;Sheet1!C28&amp;","&amp;Sheet1!D28&amp;","&amp;Sheet1!E28&amp;","&amp;Sheet1!F28&amp;","&amp;Sheet1!G28</f>
+        <v>27,common,26,23,센서,SETTING_SENSOR,/setting/sensor</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="str">
+        <f>Sheet1!A29&amp;","&amp;Sheet1!B29&amp;","&amp;Sheet1!C29&amp;","&amp;Sheet1!D29&amp;","&amp;Sheet1!E29&amp;","&amp;Sheet1!F29&amp;","&amp;Sheet1!G29</f>
+        <v>28,common,27,23,데이터 타입,SETTING_DATATYPE,/setting/data-type</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="str">
+        <f>Sheet1!A30&amp;","&amp;Sheet1!B30&amp;","&amp;Sheet1!C30&amp;","&amp;Sheet1!D30&amp;","&amp;Sheet1!E30&amp;","&amp;Sheet1!F30&amp;","&amp;Sheet1!G30</f>
+        <v>29,common,28,23,공장,SETTING_FACTORY,/setting/factory</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="str">
+        <f>Sheet1!A31&amp;","&amp;Sheet1!B31&amp;","&amp;Sheet1!C31&amp;","&amp;Sheet1!D31&amp;","&amp;Sheet1!E31&amp;","&amp;Sheet1!F31&amp;","&amp;Sheet1!G31</f>
+        <v>30,common,29,23,회사,SETTING_COMPANY,/setting/company</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="str">
+        <f>Sheet1!A32&amp;","&amp;Sheet1!B32&amp;","&amp;Sheet1!C32&amp;","&amp;Sheet1!D32&amp;","&amp;Sheet1!E32&amp;","&amp;Sheet1!F32&amp;","&amp;Sheet1!G32</f>
+        <v>31,common,30,23,분전반,SETTING_PANELBOARD,/setting/panel-board</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="str">
+        <f>Sheet1!A33&amp;","&amp;Sheet1!B33&amp;","&amp;Sheet1!C33&amp;","&amp;Sheet1!D33&amp;","&amp;Sheet1!E33&amp;","&amp;Sheet1!F33&amp;","&amp;Sheet1!G33</f>
+        <v>32,common,31,30,분전반 관리,SETTING_PANELBOARD_MANAGEMENT,/setting/panel-board/management</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="str">
+        <f>Sheet1!A34&amp;","&amp;Sheet1!B34&amp;","&amp;Sheet1!C34&amp;","&amp;Sheet1!D34&amp;","&amp;Sheet1!E34&amp;","&amp;Sheet1!F34&amp;","&amp;Sheet1!G34</f>
+        <v>33,common,32,30,분전반-설비 관리,SETTING_PANELBOARD_EQUIPMENT,/setting/panel-board/equipment</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="str">
+        <f>Sheet1!A35&amp;","&amp;Sheet1!B35&amp;","&amp;Sheet1!C35&amp;","&amp;Sheet1!D35&amp;","&amp;Sheet1!E35&amp;","&amp;Sheet1!F35&amp;","&amp;Sheet1!G35</f>
+        <v>34,common,33,30,목표 Peak 관리,SETTINGS_PANELBOARD_TARGETPEAK,/setting/panel-board/target-peak</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="str">
+        <f>Sheet1!A36&amp;","&amp;Sheet1!B36&amp;","&amp;Sheet1!C36&amp;","&amp;Sheet1!D36&amp;","&amp;Sheet1!E36&amp;","&amp;Sheet1!F36&amp;","&amp;Sheet1!G36</f>
+        <v>35,common,34,23,사용자,SETTING_USER,/setting/user</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="str">
+        <f>Sheet1!A37&amp;","&amp;Sheet1!B37&amp;","&amp;Sheet1!C37&amp;","&amp;Sheet1!D37&amp;","&amp;Sheet1!E37&amp;","&amp;Sheet1!F37&amp;","&amp;Sheet1!G37</f>
+        <v>36,common,35,23,알림,SETTING_NOTIFICATION,/setting/notification</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" t="str">
+        <f>Sheet1!A38&amp;","&amp;Sheet1!B38&amp;","&amp;Sheet1!C38&amp;","&amp;Sheet1!D38&amp;","&amp;Sheet1!E38&amp;","&amp;Sheet1!F38&amp;","&amp;Sheet1!G38</f>
+        <v>37,common,36,23,모바일 기기,SETTING_MOBILEDEVICE,/setting/mobile-device</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="str">
+        <f>Sheet1!A39&amp;","&amp;Sheet1!B39&amp;","&amp;Sheet1!C39&amp;","&amp;Sheet1!D39&amp;","&amp;Sheet1!E39&amp;","&amp;Sheet1!F39&amp;","&amp;Sheet1!G39</f>
+        <v>38,common,37,23,앱 설정,SETTING_APPCONFIG,/setting/app-config</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="str">
+        <f>Sheet1!A40&amp;","&amp;Sheet1!B40&amp;","&amp;Sheet1!C40&amp;","&amp;Sheet1!D40&amp;","&amp;Sheet1!E40&amp;","&amp;Sheet1!F40&amp;","&amp;Sheet1!G40</f>
+        <v>39,common,38,23,메뉴,SETTING_MENU,/setting/menu</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="str">
+        <f>Sheet1!A41&amp;","&amp;Sheet1!B41&amp;","&amp;Sheet1!C41&amp;","&amp;Sheet1!D41&amp;","&amp;Sheet1!E41&amp;","&amp;Sheet1!F41&amp;","&amp;Sheet1!G41</f>
+        <v>40,common,39,38,메뉴관리,SETTING_MENU_CRUD,/setting/menu/crud</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="str">
+        <f>Sheet1!A42&amp;","&amp;Sheet1!B42&amp;","&amp;Sheet1!C42&amp;","&amp;Sheet1!D42&amp;","&amp;Sheet1!E42&amp;","&amp;Sheet1!F42&amp;","&amp;Sheet1!G42</f>
+        <v>41,common,40,38,메뉴매핑,SETTING_MENU_MAPPING,/setting/menu/mapping</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="str">
+        <f>Sheet1!A43&amp;","&amp;Sheet1!B43&amp;","&amp;Sheet1!C43&amp;","&amp;Sheet1!D43&amp;","&amp;Sheet1!E43&amp;","&amp;Sheet1!F43&amp;","&amp;Sheet1!G43</f>
+        <v>42,common,41,0,사용자 정보,USER_INFO,/user/info</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="str">
+        <f>Sheet1!A44&amp;","&amp;Sheet1!B44&amp;","&amp;Sheet1!C44&amp;","&amp;Sheet1!D44&amp;","&amp;Sheet1!E44&amp;","&amp;Sheet1!F44&amp;","&amp;Sheet1!G44</f>
+        <v>43,common,42,0,주간 리포트,WEEKLY_REPORT,</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="str">
+        <f>Sheet1!A45&amp;","&amp;Sheet1!B45&amp;","&amp;Sheet1!C45&amp;","&amp;Sheet1!D45&amp;","&amp;Sheet1!E45&amp;","&amp;Sheet1!F45&amp;","&amp;Sheet1!G45</f>
+        <v>44,common,43,0,월간 리포트,MONTHLY_REPORT,</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/메뉴분류엑셀.xlsx
+++ b/메뉴분류엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\python\menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35729CC7-50AB-42BC-AFFC-FB142FB7E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4521FC1F-C0EB-4647-8B57-BEB62695F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3617" yWindow="3694" windowWidth="25534" windowHeight="13372" xr2:uid="{38E125C0-9A11-4561-9F9E-2BAA2724E441}"/>
+    <workbookView xWindow="0" yWindow="5172" windowWidth="23040" windowHeight="8508" xr2:uid="{38E125C0-9A11-4561-9F9E-2BAA2724E441}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="145">
   <si>
     <t>루트</t>
   </si>
@@ -192,9 +192,6 @@
     <t>알람 코드(PLC)</t>
   </si>
   <si>
-    <t>/plc/{place_holder}/manual</t>
-  </si>
-  <si>
     <t>MACHINE</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>PANELBOARD</t>
   </si>
   <si>
-    <t>PANELBOARD_STATUS</t>
-  </si>
-  <si>
     <t>PANELBOARD_LOG</t>
   </si>
   <si>
@@ -399,9 +393,6 @@
     <t>SETTING_PANELBOARD_EQUIPMENT</t>
   </si>
   <si>
-    <t>SETTINGS_PANELBOARD_TARGETPEAK</t>
-  </si>
-  <si>
     <t>SETTING_USER</t>
   </si>
   <si>
@@ -439,6 +430,49 @@
   </si>
   <si>
     <t>/setting/menu/mapping</t>
+  </si>
+  <si>
+    <t>/plc/manual</t>
+  </si>
+  <si>
+    <t>/machine/analysis</t>
+  </si>
+  <si>
+    <t>kepco</t>
+  </si>
+  <si>
+    <t>한전</t>
+  </si>
+  <si>
+    <t>KEPCO</t>
+  </si>
+  <si>
+    <t>/kepco</t>
+  </si>
+  <si>
+    <t>한전-현황</t>
+  </si>
+  <si>
+    <t>KEPCO_DASHBOARD</t>
+  </si>
+  <si>
+    <t>/kepco/dashboard</t>
+  </si>
+  <si>
+    <t>한전-기록</t>
+  </si>
+  <si>
+    <t>KEPCO_LOG</t>
+  </si>
+  <si>
+    <t>/kepco/log</t>
+  </si>
+  <si>
+    <t>PANELBOARD_DASHBOARD</t>
+  </si>
+  <si>
+    <t>SETTING_PANELBOARD_TARGETPEAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -837,26 +871,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C76D61-550D-4210-A7EF-ECB995679519}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="6" max="6" width="27.92578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -873,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -888,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -896,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -919,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -931,18 +968,18 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -954,10 +991,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -965,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -980,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -988,7 +1025,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1003,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1011,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -1034,7 +1071,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1052,12 +1089,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1069,7 +1106,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
@@ -1080,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -1103,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -1115,18 +1152,18 @@
         <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -1138,18 +1175,18 @@
         <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -1164,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1172,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -1184,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1195,7 +1232,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -1204,13 +1241,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1218,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -1230,10 +1267,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1241,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -1250,21 +1287,21 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -1273,13 +1310,13 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1287,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -1296,13 +1333,13 @@
         <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1310,7 +1347,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -1319,21 +1356,21 @@
         <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
@@ -1342,13 +1379,13 @@
         <v>19</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1356,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
@@ -1365,13 +1402,13 @@
         <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1379,7 +1416,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -1388,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1402,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -1414,18 +1451,18 @@
         <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -1437,18 +1474,18 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -1460,18 +1497,18 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -1483,10 +1520,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1494,7 +1531,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -1506,18 +1543,18 @@
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -1529,10 +1566,10 @@
         <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1540,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -1552,10 +1589,10 @@
         <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1563,7 +1600,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -1575,10 +1612,10 @@
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
@@ -1586,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -1598,10 +1635,10 @@
         <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
@@ -1609,7 +1646,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -1621,10 +1658,10 @@
         <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="29.6" x14ac:dyDescent="0.55000000000000004">
@@ -1632,7 +1669,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -1644,10 +1681,10 @@
         <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1655,7 +1692,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
@@ -1667,10 +1704,10 @@
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1678,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
@@ -1690,10 +1727,10 @@
         <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1701,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
@@ -1713,10 +1750,10 @@
         <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1724,7 +1761,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
@@ -1736,10 +1773,10 @@
         <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1747,7 +1784,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
@@ -1756,13 +1793,13 @@
         <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1770,7 +1807,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
@@ -1779,13 +1816,13 @@
         <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
@@ -1793,7 +1830,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -1802,13 +1839,13 @@
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1816,7 +1853,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -1831,7 +1868,7 @@
         <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1839,7 +1876,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -1855,12 +1892,12 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -1875,6 +1912,75 @@
         <v>33</v>
       </c>
       <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1">
+        <v>46</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1887,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AB4EA-860F-44A6-884F-E1E3BCF82341}">
   <dimension ref="B2:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -1974,7 +2080,7 @@
     <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="str">
         <f>Sheet1!A14&amp;","&amp;Sheet1!B14&amp;","&amp;Sheet1!C14&amp;","&amp;Sheet1!D14&amp;","&amp;Sheet1!E14&amp;","&amp;Sheet1!F14&amp;","&amp;Sheet1!G14</f>
-        <v>13,plc,12,7,알람 코드(PLC),PLC_ALARM_CODE,/plc/{place_holder}/manual</v>
+        <v>13,plc,12,7,알람 코드(PLC),PLC_ALARM_CODE,/plc/manual</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -1986,7 +2092,7 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="str">
         <f>Sheet1!A16&amp;","&amp;Sheet1!B16&amp;","&amp;Sheet1!C16&amp;","&amp;Sheet1!D16&amp;","&amp;Sheet1!E16&amp;","&amp;Sheet1!F16&amp;","&amp;Sheet1!G16</f>
-        <v>15,mv&amp;machiney,14,13,분석(MACHINE),MACHINE_ANALYSIS,/machine</v>
+        <v>15,mv&amp;machiney,14,13,분석(MACHINE),MACHINE_ANALYSIS,/machine/analysis</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -1998,7 +2104,7 @@
     <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="str">
         <f>Sheet1!A18&amp;","&amp;Sheet1!B18&amp;","&amp;Sheet1!C18&amp;","&amp;Sheet1!D18&amp;","&amp;Sheet1!E18&amp;","&amp;Sheet1!F18&amp;","&amp;Sheet1!G18</f>
-        <v>17,panel_board,16,15,현황(분전반),PANELBOARD_STATUS,/panel-board/daily</v>
+        <v>17,panel_board,16,15,현황(분전반),PANELBOARD_DASHBOARD,/panel-board/daily</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -2100,7 +2206,7 @@
     <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="str">
         <f>Sheet1!A35&amp;","&amp;Sheet1!B35&amp;","&amp;Sheet1!C35&amp;","&amp;Sheet1!D35&amp;","&amp;Sheet1!E35&amp;","&amp;Sheet1!F35&amp;","&amp;Sheet1!G35</f>
-        <v>34,common,33,30,목표 Peak 관리,SETTINGS_PANELBOARD_TARGETPEAK,/setting/panel-board/target-peak</v>
+        <v>34,common,33,30,목표 Peak 관리,SETTING_PANELBOARD_TARGETPEAK,/setting/panel-board/target-peak</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -2166,5 +2272,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>